--- a/Mastermind_data_dictionary.xlsx
+++ b/Mastermind_data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ky279\OneDrive - University of Exeter\CPRD\CPRD_Aurum\R package archive and scripts\Katie scripts\Ready made tables inc Mastermind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ky279\OneDrive - University of Exeter\CPRD\CPRD-Katie-MASTERMIND-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="466">
   <si>
     <t>coverage</t>
   </si>
@@ -1598,16 +1598,7 @@
     <t>mm_[today's date]_t2d_all_drug_periods</t>
   </si>
   <si>
-    <t>Table: mm_[today's date]_t2d_all_drug_periods</t>
-  </si>
-  <si>
-    <t>1 line per patid / drug class instance (continuous period of drug class use)</t>
-  </si>
-  <si>
     <t>Only includes patids with Type 2 diabetes in Type 1/2 cohort and with HES linkage (with_hes==1; see above all_t1t2_cohort table)</t>
-  </si>
-  <si>
-    <t>This table is a copy of mm_drug_start_stop for the T2D with HES cohort, to allow censoring at later drug start dates if required for analysis</t>
   </si>
   <si>
     <t>as per mm_drug_start_stop (i.e. all instances, not excluding those initiated within 91 days of registration), for patids with T2D and HES linkage (the same cohort as the mm_[today's date]_t2d_1stinstance table)</t>
@@ -2218,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2422,7 +2413,7 @@
         <v>373</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2431,7 +2422,7 @@
         <v>449</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2449,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,7 +2484,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2555,7 +2546,7 @@
         <v>187</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2717,7 +2708,7 @@
         <v>383</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2753,7 +2744,7 @@
         <v>382</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,7 +2787,7 @@
         <v>189</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3284,7 +3275,7 @@
         <v>323</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3922,11 +3913,11 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B148" s="50"/>
       <c r="C148" s="50" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D148" s="11"/>
     </row>
@@ -3951,7 +3942,7 @@
         <v>265</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D153" s="25"/>
     </row>
@@ -4160,17 +4151,17 @@
       </c>
       <c r="B176" s="33"/>
       <c r="C176" s="33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D176" s="51"/>
     </row>
     <row r="177" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B177" s="50"/>
       <c r="C177" s="50" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D177" s="51"/>
     </row>
@@ -4612,14 +4603,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C238" s="48"/>
       <c r="D238" s="48"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C239" s="48"/>
       <c r="D239" s="48"/>
@@ -4698,33 +4689,20 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="18" t="s">
-        <v>445</v>
-      </c>
+      <c r="A251" s="18"/>
       <c r="C251" s="48"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="17" t="s">
-        <v>450</v>
-      </c>
+      <c r="A252" s="17"/>
       <c r="C252" s="48"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="16" t="s">
-        <v>451</v>
-      </c>
+      <c r="A253" s="16"/>
       <c r="C253" s="48"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="16" t="s">
-        <v>452</v>
-      </c>
+      <c r="A254" s="16"/>
       <c r="C254" s="48"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>453</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4741,12 +4719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7443FFE2BB5364AA07A7BBEE2C00788" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5e306f5c28467a751088554132ec436">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="05882578-497b-4cf7-81dc-3721c52819b3" xmlns:ns4="4b8f695c-c865-44f8-899f-0021c83a7e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e25ec528f89fff1e115a003429eab97" ns3:_="" ns4:_="">
     <xsd:import namespace="05882578-497b-4cf7-81dc-3721c52819b3"/>
@@ -4969,6 +4941,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4979,23 +4957,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026E670-324B-4B77-8409-38152B286738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
-    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A82D1D6-5E44-42A6-B156-CA1A1E8ECE3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5014,6 +4975,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026E670-324B-4B77-8409-38152B286738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67777F34-6C01-4F3B-8559-30A750F63B5A}">
   <ds:schemaRefs>

--- a/Mastermind_data_dictionary.xlsx
+++ b/Mastermind_data_dictionary.xlsx
@@ -2442,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,7 +2487,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -4719,6 +4719,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7443FFE2BB5364AA07A7BBEE2C00788" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5e306f5c28467a751088554132ec436">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="05882578-497b-4cf7-81dc-3721c52819b3" xmlns:ns4="4b8f695c-c865-44f8-899f-0021c83a7e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e25ec528f89fff1e115a003429eab97" ns3:_="" ns4:_="">
     <xsd:import namespace="05882578-497b-4cf7-81dc-3721c52819b3"/>
@@ -4941,22 +4956,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67777F34-6C01-4F3B-8559-30A750F63B5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026E670-324B-4B77-8409-38152B286738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A82D1D6-5E44-42A6-B156-CA1A1E8ECE3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4973,29 +4998,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026E670-324B-4B77-8409-38152B286738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67777F34-6C01-4F3B-8559-30A750F63B5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>